--- a/Game2500-rpg Org-chart.xlsx
+++ b/Game2500-rpg Org-chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/elsayed_s_northeastern_edu/Documents/Foundations of Game Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\GAME2500-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C885DA-7DF8-4502-81C1-944F15A679B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63915F22-8A0F-4F42-AAA7-FA8FCD4089C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
+    <workbookView xWindow="3855" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Tenament</t>
   </si>
@@ -85,6 +85,45 @@
   </si>
   <si>
     <t>There to give you your lunch (for now)</t>
+  </si>
+  <si>
+    <t>Front Gate</t>
+  </si>
+  <si>
+    <t>Worker's Entrance</t>
+  </si>
+  <si>
+    <t>Main Entrance</t>
+  </si>
+  <si>
+    <t>Intake Desk</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Spindle Room</t>
+  </si>
+  <si>
+    <t>Cotton Engines</t>
+  </si>
+  <si>
+    <t>Loading Dock</t>
+  </si>
+  <si>
+    <t>Central Stairs</t>
+  </si>
+  <si>
+    <t>Boiler Room</t>
+  </si>
+  <si>
+    <t>Finishing Room</t>
+  </si>
+  <si>
+    <t>Locker Rooms</t>
+  </si>
+  <si>
+    <t>Basement Stairs</t>
   </si>
 </sst>
 </file>
@@ -100,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,8 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632947CF-8124-4195-B073-99209FB884B7}">
-  <dimension ref="G4:S13"/>
+  <dimension ref="G4:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +506,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="P4" t="s">
         <v>4</v>
       </c>
@@ -509,37 +566,102 @@
       </c>
     </row>
     <row r="9" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>3</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="P10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="P11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="P12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P13" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Game2500-rpg Org-chart.xlsx
+++ b/Game2500-rpg Org-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\GAME2500-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63915F22-8A0F-4F42-AAA7-FA8FCD4089C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB9F09-DE84-47F6-90A5-EC206B947AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
+    <workbookView xWindow="240" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Tenament</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Alley</t>
   </si>
   <si>
-    <t>Entrance</t>
-  </si>
-  <si>
     <t>Factory</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Basement Stairs</t>
+  </si>
+  <si>
+    <t>Locker Room</t>
   </si>
 </sst>
 </file>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632947CF-8124-4195-B073-99209FB884B7}">
-  <dimension ref="G4:S22"/>
+  <dimension ref="G4:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,62 +507,62 @@
   <sheetData>
     <row r="4" spans="7:19" x14ac:dyDescent="0.25">
       <c r="I4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4"/>
       <c r="P4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
         <v>8</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="7:19" x14ac:dyDescent="0.25">
       <c r="P5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="s">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="7:19" x14ac:dyDescent="0.25">
       <c r="P6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
         <v>0</v>
       </c>
       <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
         <v>13</v>
-      </c>
-      <c r="S6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="7:19" x14ac:dyDescent="0.25">
       <c r="P7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="7:19" x14ac:dyDescent="0.25">
@@ -573,17 +573,17 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="J10" s="1"/>
       <c r="P10" t="s">
@@ -593,10 +593,10 @@
     <row r="11" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1"/>
       <c r="P11" t="s">
@@ -606,62 +606,97 @@
     <row r="12" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="J12" s="1"/>
       <c r="P12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="P13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1"/>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1"/>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
       <c r="I22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Game2500-rpg Org-chart.xlsx
+++ b/Game2500-rpg Org-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\GAME2500-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB9F09-DE84-47F6-90A5-EC206B947AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E2EFFE-BCB3-4024-A85A-88EEA3E496F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
+    <workbookView xWindow="23835" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Tenament</t>
   </si>
@@ -124,6 +124,48 @@
   </si>
   <si>
     <t>Locker Room</t>
+  </si>
+  <si>
+    <t>Home, no real information here</t>
+  </si>
+  <si>
+    <t>Newspaper, ???</t>
+  </si>
+  <si>
+    <t>Mostly for atmosphere, maybe lunch break stuff</t>
+  </si>
+  <si>
+    <t>Normal place to go without being harassed by mangement</t>
+  </si>
+  <si>
+    <t>For women and people needing to schedule meetings</t>
+  </si>
+  <si>
+    <t>Women working on making threads</t>
+  </si>
+  <si>
+    <t>Changing clothes (not sure if we need for that)</t>
+  </si>
+  <si>
+    <t>Where you work</t>
+  </si>
+  <si>
+    <t>Staircase</t>
+  </si>
+  <si>
+    <t>Energy for plant, engineers</t>
+  </si>
+  <si>
+    <t>staircase, more spooky</t>
+  </si>
+  <si>
+    <t>Women working, mostly gossip</t>
+  </si>
+  <si>
+    <t>CLUES</t>
+  </si>
+  <si>
+    <t>Found on Drive Doc</t>
   </si>
 </sst>
 </file>
@@ -139,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -175,6 +223,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632947CF-8124-4195-B073-99209FB884B7}">
-  <dimension ref="G4:S24"/>
+  <dimension ref="G4:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +644,9 @@
       <c r="P10" t="s">
         <v>0</v>
       </c>
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
@@ -602,6 +660,9 @@
       <c r="P11" t="s">
         <v>1</v>
       </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G12" s="1"/>
@@ -615,6 +676,9 @@
       <c r="P12" t="s">
         <v>16</v>
       </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G13" s="1"/>
@@ -629,6 +693,9 @@
       </c>
       <c r="P13" t="s">
         <v>17</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="7:19" x14ac:dyDescent="0.25">
@@ -641,6 +708,9 @@
       <c r="P14" t="s">
         <v>19</v>
       </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G15" s="1"/>
@@ -651,6 +721,9 @@
       <c r="J15" s="1"/>
       <c r="P15" t="s">
         <v>21</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="7:19" x14ac:dyDescent="0.25">
@@ -661,8 +734,11 @@
       <c r="P16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -670,36 +746,93 @@
       <c r="P17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
       <c r="P18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="P19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
       <c r="P20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="I22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="P22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.25">
       <c r="P24" t="s">
         <v>26</v>
       </c>
+      <c r="Q24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+    </row>
+    <row r="30" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+    </row>
+    <row r="31" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P27:T27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Game2500-rpg Org-chart.xlsx
+++ b/Game2500-rpg Org-chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\GAME2500-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E2EFFE-BCB3-4024-A85A-88EEA3E496F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4989CD5C-7DF0-4A57-80A6-293CB6CB38C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23835" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
+    <workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{529E1FA7-0718-4BDE-AE0F-699A3D90A599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Tenament</t>
   </si>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,10 +226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632947CF-8124-4195-B073-99209FB884B7}">
   <dimension ref="G4:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +610,15 @@
       </c>
     </row>
     <row r="7" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="P7" t="s">
         <v>6</v>
       </c>
@@ -620,13 +632,12 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="I8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="9" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
@@ -791,42 +802,42 @@
       </c>
     </row>
     <row r="27" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
